--- a/比特直播课/比特直播课讲义/笔记-数据结构/2024_10_16 2.链表(4)-双链表.xlsx
+++ b/比特直播课/比特直播课讲义/笔记-数据结构/2024_10_16 2.链表(4)-双链表.xlsx
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="N133:X141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="S165" sqref="S165"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="S119" sqref="S119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
